--- a/metabolite_properties/inputs/APM Compounds.xlsx
+++ b/metabolite_properties/inputs/APM Compounds.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1436C9E5-5581-4494-896C-BEC4C56DD2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D76079-C27B-4291-84DE-AD84923AC0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="198">
   <si>
     <t>Compound Name</t>
   </si>
@@ -38,9 +38,6 @@
     <t>InChIKey</t>
   </si>
   <si>
-    <t>Smiles</t>
-  </si>
-  <si>
     <t>CAS_ID</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>LDINXKAJZCAVGL-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>CC1=C2C=CN=CC2=C(C3=C1NC4=C3C(=CC=C4)O)C</t>
-  </si>
-  <si>
     <t>83201-12-1</t>
   </si>
   <si>
@@ -77,6 +71,9 @@
     <t>18-hydroxymatopensine</t>
   </si>
   <si>
+    <t>GWADLAVPZXUFHZ-UXVCMZGHSA-N</t>
+  </si>
+  <si>
     <t>2-formyl-3-hydroxy-9,10-anthraquinone</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
     <t>aricin</t>
   </si>
   <si>
+    <t>DTDADHMBRZKXSC-GKASHWOUSA-N</t>
+  </si>
+  <si>
     <t>482-91-7</t>
   </si>
   <si>
@@ -167,6 +167,9 @@
     <t>Cephaeline</t>
   </si>
   <si>
+    <t>DTGZHCFJNDAHEN-OZEXIGSWSA-N</t>
+  </si>
+  <si>
     <t>483-17-0</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
     <t>Chloroquine diphosphate</t>
   </si>
   <si>
+    <t>QKICWELGRMTQCR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>50-63-5</t>
   </si>
   <si>
@@ -194,6 +200,9 @@
     <t xml:space="preserve">Chrysopentamine </t>
   </si>
   <si>
+    <t>IQBXYHKRGWPSAY-CNORLSDQSA-N</t>
+  </si>
+  <si>
     <t>cinchonidine</t>
   </si>
   <si>
@@ -215,6 +224,9 @@
     <t>cryptoheptine</t>
   </si>
   <si>
+    <t>IKTLJFPIZBHNFZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>160568-17-2</t>
   </si>
   <si>
@@ -230,24 +242,39 @@
     <t>dehydrocrebanine</t>
   </si>
   <si>
+    <t>HCKFFNXOLCSPAI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>dehydrostephanine</t>
   </si>
   <si>
+    <t>WQXYOCWRQTXKCI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>dihydroartemisinin</t>
   </si>
   <si>
+    <t>BJDCWCLMFKKGEE-ISOSDAIHSA-N</t>
+  </si>
+  <si>
     <t xml:space="preserve">71939-50-9 </t>
   </si>
   <si>
     <t>dihydroquinidine</t>
   </si>
   <si>
+    <t>LJOQGZACKSYWCH-LHHVKLHASA-N</t>
+  </si>
+  <si>
     <t>1435-55-8</t>
   </si>
   <si>
     <t>dihydrousambarensine</t>
   </si>
   <si>
+    <t>JBQRORTXNDQJOM-AGDKNOKHSA-N</t>
+  </si>
+  <si>
     <t>7,24</t>
   </si>
   <si>
@@ -257,6 +284,9 @@
     <t>Ellipticine</t>
   </si>
   <si>
+    <t>CTSPAMFJBXKSOY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>519-23-3</t>
   </si>
   <si>
@@ -266,12 +296,18 @@
     <t>Emetine</t>
   </si>
   <si>
+    <t>AUVVAXYIELKVAI-CKBKHPSWSA-N</t>
+  </si>
+  <si>
     <t>483-18-1</t>
   </si>
   <si>
     <t>Ferroquine</t>
   </si>
   <si>
+    <t>DDENDDKMBDTHAX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>185055-67-8</t>
   </si>
   <si>
@@ -287,12 +323,21 @@
     <t>geissolosimine</t>
   </si>
   <si>
+    <t>CSVWQRLFFUNUND-KJSNTNJZSA-N</t>
+  </si>
+  <si>
     <t>Himbeline</t>
   </si>
   <si>
+    <t>GEQKTSPOTKEYOG-RQEHFGSBSA-N</t>
+  </si>
+  <si>
     <t>Isostrychnopentamine</t>
   </si>
   <si>
+    <t>MHIOYLXTHAIJLU-FVHQJPTNSA-N</t>
+  </si>
+  <si>
     <t>7,17, 19,24</t>
   </si>
   <si>
@@ -311,15 +356,27 @@
     <t>Klugine</t>
   </si>
   <si>
+    <t>IIFHKWNCTVOSKL-OKGGWNPJSA-N</t>
+  </si>
+  <si>
     <t>leuconicine B</t>
   </si>
   <si>
+    <t>SISNJMQUMOSGQC-PEYHYLNSSA-N</t>
+  </si>
+  <si>
     <t>leucoridine A N-oxide</t>
   </si>
   <si>
+    <t>HKAGGHHSVSICEN-OQPIJLORSA-N</t>
+  </si>
+  <si>
     <t>Longicaudatine</t>
   </si>
   <si>
+    <t>PTRWWFKHWVYDOM-CVTVRFCHSA-N</t>
+  </si>
+  <si>
     <t>Longicaudatine Y</t>
   </si>
   <si>
@@ -341,12 +398,21 @@
     <t>Neosergeolide</t>
   </si>
   <si>
+    <t>NEDSAORRUXXBSA-YLGGRGQVSA-N</t>
+  </si>
+  <si>
     <t>Nicalaterine A</t>
   </si>
   <si>
+    <t>XHUIUBANZNHJEL-UHFFFAOYSA-O</t>
+  </si>
+  <si>
     <t>Ochrolifuanine A</t>
   </si>
   <si>
+    <t>WPRCHZNIQPXBQO-IWOKYBKVSA-N</t>
+  </si>
+  <si>
     <t>35527-46-9</t>
   </si>
   <si>
@@ -389,9 +455,15 @@
     <t>Strychnogucine B</t>
   </si>
   <si>
+    <t>MMKIAHOGFMPKCT-YDBFCOOGSA-N</t>
+  </si>
+  <si>
     <t>Strychnopentamine</t>
   </si>
   <si>
+    <t>PHLJPJICTIGOKC-XKYMZAEISA-N</t>
+  </si>
+  <si>
     <t>19,24</t>
   </si>
   <si>
@@ -407,18 +479,30 @@
     <t>tetrahydro-4′,5′,6′,17-usambarensin 17S</t>
   </si>
   <si>
+    <t>IOZYAEIIRSJEJS-CFZMTHNTSA-N</t>
+  </si>
+  <si>
     <t>Tubulosine</t>
   </si>
   <si>
+    <t>JRVWIILYWSBUMC-PRUVNFMMSA-N</t>
+  </si>
+  <si>
     <t>2632-29-3</t>
   </si>
   <si>
     <t>usambarensin</t>
   </si>
   <si>
+    <t>OWBFGXDXEJBFHG-VKNLYSTLSA-N</t>
+  </si>
+  <si>
     <t>Voacamine</t>
   </si>
   <si>
+    <t>VCMIRXRRQJNZJT-XRMSBCOFSA-N</t>
+  </si>
+  <si>
     <t>3371-85-5</t>
   </si>
   <si>
@@ -428,6 +512,9 @@
     <t>10'-Hydroxyusambarensine</t>
   </si>
   <si>
+    <t>UXVNNVWPICKMTE-WRLCUUPGSA-N</t>
+  </si>
+  <si>
     <t>225939-61-7</t>
   </si>
   <si>
@@ -443,13 +530,19 @@
     <t>11-Hydroxyusambarine</t>
   </si>
   <si>
+    <t>DGQWMSVZRIPJMR-HVYZTVOGSA-N</t>
+  </si>
+  <si>
     <t>10-Hydroxydihydrousambarine</t>
   </si>
   <si>
+    <t>LJLFWHVFRNHBRP-HVYZTVOGSA-N</t>
+  </si>
+  <si>
     <t>ELLIPTECINE</t>
   </si>
   <si>
-    <t>CTSPAMFJBXKSOY-UHFFFAOYSA-N</t>
+    <t>ChemBL</t>
   </si>
   <si>
     <t>No.</t>
@@ -914,822 +1007,860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="E2" s="3">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="E10" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="3">
+      <c r="D16" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="E17" s="3">
+      <c r="D17" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s">
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="3">
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="3">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="3">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="3">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="3">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="3">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="3">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="3">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="3">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="3">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>83</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="3">
+        <v>87</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="3">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="3">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="D47" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="D59" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="E37" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="E38" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="E39" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="E43" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="E45" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="E46" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="E47" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="E50" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="E51" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="E57" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="E58" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="E59" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="E61" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="E63" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>137</v>
-      </c>
-      <c r="E69" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>139</v>
+      <c r="D70" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E65">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D65">
     <sortCondition ref="A2:A65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1748,10 +1879,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1759,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1767,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1775,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1783,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1791,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1799,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1807,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1815,7 +1946,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1823,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1831,7 +1962,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1839,7 +1970,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1847,7 +1978,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1855,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1863,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1871,7 +2002,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1879,7 +2010,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1887,7 +2018,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1895,7 +2026,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1903,7 +2034,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1911,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1919,7 +2050,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1927,7 +2058,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1935,7 +2066,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1943,7 +2074,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2094,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
